--- a/BOM/BOM.xlsx
+++ b/BOM/BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Samara University\SpaceGradientAltiumLibraries\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SpaceGradientAltiumLibraries\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166DE8FD-2368-4629-B839-4BBC18533B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F52B4D-2DB7-4862-AEA8-79F9BCBA3E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3240" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26730" yWindow="-2790" windowWidth="24870" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,9 +67,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -96,48 +103,151 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -153,15 +263,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{15966628-B3EB-4CC4-A0C2-45BBD15B511E}" name="Таблица1" displayName="Таблица1" ref="A2:F5" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{15966628-B3EB-4CC4-A0C2-45BBD15B511E}" name="Таблица1" displayName="Таблица1" ref="A2:F5" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <autoFilter ref="A2:F5" xr:uid="{15966628-B3EB-4CC4-A0C2-45BBD15B511E}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{25F0F8D7-ACF9-4C05-8F72-6EF8A1D9A650}" name="#" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{4BD344FB-8111-4407-8355-C9CF52540099}" name="Column=Order" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{D75CB5AB-0F3A-4310-ACD3-73A626DBE208}" name="Column=Quantity" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{E893FC4F-7958-44F4-A1A2-77B5CD81391A}" name="Column=Comment" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{05F219A9-BCBD-4C0C-9548-1EA0DD8C1ACE}" name="Column=Designator" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{439FE6AB-A791-4665-855E-9D06E3AEDC74}" name="Column=Footprint" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{25F0F8D7-ACF9-4C05-8F72-6EF8A1D9A650}" name="#" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{4BD344FB-8111-4407-8355-C9CF52540099}" name="Column=Order" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{D75CB5AB-0F3A-4310-ACD3-73A626DBE208}" name="Column=Quantity" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{E893FC4F-7958-44F4-A1A2-77B5CD81391A}" name="Column=Comment" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{05F219A9-BCBD-4C0C-9548-1EA0DD8C1ACE}" name="Column=Designator" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{439FE6AB-A791-4665-855E-9D06E3AEDC74}" name="Column=Footprint" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -432,76 +542,104 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="24" style="3" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F7" t="s">
+    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -510,7 +648,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="80" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -518,15 +656,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x010100366A2C966545C74A90BA88BB31E79D4E" ma:contentTypeVersion="18" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="88a4adc192a91e4139048ae1858677c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="48f2976d-3d68-4f1b-8d93-444768a077a3" xmlns:ns3="2d1d9bf0-7266-4a2d-9b9c-7c752e5a7c6f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7be2a8040348d80e89722eb171e972e9" ns2:_="" ns3:_="">
     <xsd:import namespace="48f2976d-3d68-4f1b-8d93-444768a077a3"/>
@@ -781,15 +910,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4367ED83-0D24-4570-AB11-9D935C59BCE7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{193DCB07-5D5E-400A-A6E1-2F7FCD11F639}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -806,4 +936,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4367ED83-0D24-4570-AB11-9D935C59BCE7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>